--- a/Database定義書.xlsx
+++ b/Database定義書.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lessons\RJP\Project\SNS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7152" windowHeight="8688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="3060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>データベース定義書</t>
     <rPh sb="6" eb="9">
@@ -149,10 +145,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>department_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>学科名</t>
     <rPh sb="0" eb="2">
       <t>ガッカ</t>
@@ -183,10 +175,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>department_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Varchar2(12)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -196,10 +184,6 @@
   </si>
   <si>
     <t>user_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Varchar2(12)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -294,10 +278,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザーID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>学科ID</t>
     <rPh sb="0" eb="2">
       <t>ガッカ</t>
@@ -305,13 +285,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>学科ID</t>
-    <rPh sb="0" eb="2">
-      <t>ガッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フォローしている側のユーザーID</t>
     <rPh sb="8" eb="9">
       <t>ガワ</t>
@@ -492,13 +465,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Belong_Department_t表</t>
-    <rPh sb="19" eb="20">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Department_t表</t>
     <rPh sb="12" eb="13">
       <t>ヒョウ</t>
@@ -533,10 +499,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>n</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Notification_t表</t>
     <rPh sb="14" eb="15">
       <t>ヒョウ</t>
@@ -553,13 +515,17 @@
   </si>
   <si>
     <t>notification_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>department_name</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -969,39 +935,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.53125" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="34.77734375" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="34.796875" customWidth="1"/>
+    <col min="9" max="9" width="18.86328125" customWidth="1"/>
     <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="34.77734375" customWidth="1"/>
+    <col min="11" max="11" width="34.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="3:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:14" ht="13.15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:14" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1018,25 +984,25 @@
         <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>1</v>
@@ -1054,9 +1020,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -1067,28 +1033,28 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
@@ -1099,36 +1065,36 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="I8" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -1136,12 +1102,12 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
@@ -1149,15 +1115,15 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>16</v>
@@ -1183,120 +1149,120 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="I15" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>1</v>
       </c>
@@ -1313,29 +1279,29 @@
         <v>7</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>1</v>
@@ -1353,7 +1319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1366,63 +1332,63 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="I20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="K21" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1439,167 +1405,113 @@
         <v>7</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C27" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="3:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C33" s="1" t="s">
+    <row r="30" spans="3:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="1" t="s">
+      <c r="D30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C34" s="1" t="s">
+      <c r="G30" s="1"/>
+      <c r="H30" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="3:14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="3:14" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database定義書.xlsx
+++ b/Database定義書.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lessons\RJP\Project\SNS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7152" windowHeight="8688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="5865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>データベース定義書</t>
     <rPh sb="6" eb="9">
@@ -183,10 +179,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>department_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Varchar2(12)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -196,10 +188,6 @@
   </si>
   <si>
     <t>user_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Varchar2(12)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -294,10 +282,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザーID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>学科ID</t>
     <rPh sb="0" eb="2">
       <t>ガッカ</t>
@@ -305,13 +289,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>学科ID</t>
-    <rPh sb="0" eb="2">
-      <t>ガッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フォローしている側のユーザーID</t>
     <rPh sb="8" eb="9">
       <t>ガワ</t>
@@ -492,13 +469,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Belong_Department_t表</t>
-    <rPh sb="19" eb="20">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Department_t表</t>
     <rPh sb="12" eb="13">
       <t>ヒョウ</t>
@@ -514,10 +484,6 @@
   </si>
   <si>
     <t>Varchar2(600)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>n</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -559,7 +525,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -969,39 +935,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D15" sqref="C4:N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.53125" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="34.77734375" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="34.796875" customWidth="1"/>
+    <col min="9" max="9" width="18.86328125" customWidth="1"/>
     <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="34.77734375" customWidth="1"/>
+    <col min="11" max="11" width="34.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="3:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:14" ht="13.15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:14" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1018,25 +984,25 @@
         <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>1</v>
@@ -1054,9 +1020,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -1067,28 +1033,28 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
@@ -1099,36 +1065,36 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="I8" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -1136,9 +1102,9 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>27</v>
@@ -1149,15 +1115,15 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>16</v>
@@ -1183,120 +1149,120 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="I15" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>1</v>
       </c>
@@ -1313,29 +1279,29 @@
         <v>7</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>1</v>
@@ -1353,7 +1319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1366,63 +1332,63 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="K19" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="I20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1439,167 +1405,113 @@
         <v>7</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
+    <row r="27" spans="3:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
+    <row r="31" spans="3:14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="3:14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="3:14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="3:14" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
